--- a/outputs/ML_Results/carown_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/carown_LR/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ9" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ20" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ8" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ13" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ11" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ20" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6723880539067065</v>
+        <v>0.9701023603714007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4575075745903014</v>
+        <v>0.2659589570971946</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.477978853911477</v>
+        <v>0.2690341559509464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1958621229017269</v>
+        <v>0.467528688669322</v>
       </c>
     </row>
     <row r="4">
@@ -492,257 +492,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8524401555549692</v>
+        <v>-0.6567914300647658</v>
       </c>
       <c r="C4" t="n">
-        <v>4.651103571196098e-05</v>
+        <v>0.001842483061285457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7464135385846263</v>
+        <v>-0.5534086113800999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001352335436089174</v>
+        <v>0.01075460099500808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6410387019604318</v>
+        <v>-0.764852873347365</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002897950553163474</v>
+        <v>0.0007402177957073177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3967856678935351</v>
+        <v>0.04260300677130559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5517807709192388</v>
+        <v>0.7607932669998752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05988255336697107</v>
+        <v>0.0008742183849865673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6601673723899885</v>
+        <v>3.431775792753243e-30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008740582819978724</v>
+        <v>-0.003821449934645926</v>
       </c>
       <c r="C9" t="n">
-        <v>4.081373276193379e-30</v>
+        <v>0.3306163939979212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.005910022553113337</v>
+        <v>0.6817153759952195</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1344949416005262</v>
+        <v>3.019579012803141e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5942417207630954</v>
+        <v>0.6724156439347879</v>
       </c>
       <c r="C11" t="n">
-        <v>1.292779387457185e-06</v>
+        <v>1.693232116455758e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6339320850263271</v>
+        <v>0.2145350049180385</v>
       </c>
       <c r="C12" t="n">
-        <v>5.875679146682205e-06</v>
+        <v>0.3027660482380566</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2417016978003627</v>
+        <v>-6.845560734356058e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2512355503471682</v>
+        <v>0.09256644867762184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001055826883588517</v>
+        <v>1.083268666684827e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009670694361130197</v>
+        <v>0.9790448223987155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.708291774892841e-08</v>
+        <v>-0.02517653692009354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3755190513003898</v>
+        <v>0.5099224134556111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003855591103776766</v>
+        <v>0.05112215776606399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9213314557171053</v>
+        <v>0.02739491685812536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06410875162802994</v>
+        <v>-0.4587354080447208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007974215177234257</v>
+        <v>0.5550293372605071</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.6516583959269848</v>
+        <v>-0.008021126265373723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4063558176048478</v>
+        <v>0.02703834254817721</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005313359273135754</v>
+        <v>-0.000543297468266471</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1445818377837594</v>
+        <v>0.9153738808428888</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001318447879163951</v>
+        <v>4.298825319911155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8087905675233732</v>
+        <v>1.000681155955672e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.498127723928975</v>
+        <v>4.22151695453956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003628628425152339</v>
+        <v>0.0001385971529921538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.286418628266569</v>
+        <v>-3.666173359468447</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03968894807796593</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.505836053420587</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01186790737719267</v>
+        <v>0.0001979635084390644</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.138179087887769</v>
+        <v>0.6217776100241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1972512770845024</v>
+        <v>0.4778967116441964</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5728718724795779</v>
+        <v>0.4863260797186018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.129907536292085</v>
+        <v>0.1787033011224241</v>
       </c>
     </row>
     <row r="4">
@@ -814,257 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8485969972508906</v>
+        <v>-0.7493723961112126</v>
       </c>
       <c r="C4" t="n">
-        <v>5.579276990564948e-05</v>
+        <v>0.0002965395709597778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6394587187579598</v>
+        <v>-0.6267512945034632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007627835146504306</v>
+        <v>0.003300606491556656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7520919349105614</v>
+        <v>-0.789323604240409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000515846741802097</v>
+        <v>0.0005628071747663095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3045926374480567</v>
+        <v>-0.04402746750595219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6751157170621707</v>
+        <v>0.7460638848034058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.09255776096817774</v>
+        <v>0.0008559320142207522</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5052666332298428</v>
+        <v>7.632108331518557e-30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008458977482259983</v>
+        <v>-0.007303603426850395</v>
       </c>
       <c r="C9" t="n">
-        <v>7.32398174391801e-29</v>
+        <v>0.06167294522557134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.00303436376389216</v>
+        <v>0.6656697891942345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4463150584970972</v>
+        <v>5.224757782265728e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5753669196621326</v>
+        <v>0.7008655657966699</v>
       </c>
       <c r="C11" t="n">
-        <v>3.347663695182125e-06</v>
+        <v>6.489244353661965e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6721038675458361</v>
+        <v>0.3602306672616817</v>
       </c>
       <c r="C12" t="n">
-        <v>1.984307741623836e-06</v>
+        <v>0.08221159243688811</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1949748314130812</v>
+        <v>-0.0001012042569067354</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3565519677492032</v>
+        <v>0.01400441286993557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.706234955060373e-05</v>
+        <v>3.749528944549603e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06210130860243195</v>
+        <v>0.3742858741602099</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.617646967803971e-08</v>
+        <v>0.000340940608252418</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5367236686590435</v>
+        <v>0.9928087285934422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01295730577414248</v>
+        <v>0.0469156958140015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7417854218801684</v>
+        <v>0.03979045714598829</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05088052711493959</v>
+        <v>-0.8022323106259833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03437851838522562</v>
+        <v>0.3021682221885684</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.9627175815836003</v>
+        <v>-0.007597115475042261</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2126748618912064</v>
+        <v>0.03566559583765738</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007992887254602612</v>
+        <v>0.002107682158721088</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02790605791085043</v>
+        <v>0.687541552804543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0005775616702433317</v>
+        <v>3.484244058728755</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9123188176617011</v>
+        <v>0.0003728013837364888</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.249055509636836</v>
+        <v>2.259769205892138</v>
       </c>
       <c r="C21" t="n">
-        <v>1.678135852748879e-05</v>
+        <v>0.03889881887414572</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.433651730078927</v>
+        <v>-2.329320224722094</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00226257629323929</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.388026402671396</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0006256659969617325</v>
+        <v>0.01753994510598771</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.05369969237237</v>
+        <v>1.325549952879192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2218988507841727</v>
+        <v>0.1242281738324575</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4100432864291886</v>
+        <v>0.4754068173677427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.260929569381821</v>
+        <v>0.209828732412135</v>
       </c>
     </row>
     <row r="4">
@@ -1136,257 +1110,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7101345664924499</v>
+        <v>-0.8948830375518138</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006031713854678414</v>
+        <v>2.901045805819776e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7343467555705648</v>
+        <v>-0.7367470414098529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001682344613500581</v>
+        <v>0.0008137978202156079</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.641575372583865</v>
+        <v>-0.7436681433112196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002454259443872955</v>
+        <v>0.001714374985702379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9449683712145565</v>
+        <v>-0.03136241572703705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148098361653887</v>
+        <v>0.8258596717885424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01617603425570677</v>
+        <v>0.0008241727160929069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9041804921732792</v>
+        <v>1.887606465030031e-27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000814736269706596</v>
+        <v>-0.007211421249574854</v>
       </c>
       <c r="C9" t="n">
-        <v>2.028954007355832e-27</v>
+        <v>0.06636899159848572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006093911696799446</v>
+        <v>0.6048554133252684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1178260970098</v>
+        <v>1.289383899889745e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6466812540731509</v>
+        <v>0.6597391802835521</v>
       </c>
       <c r="C11" t="n">
-        <v>1.221938690265331e-07</v>
+        <v>3.418531154973674e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7692585252884404</v>
+        <v>0.3213930317045771</v>
       </c>
       <c r="C12" t="n">
-        <v>2.868692030785629e-08</v>
+        <v>0.1252307136600612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3703562980147451</v>
+        <v>-9.370788910179535e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07306063367197067</v>
+        <v>0.02216564416906756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.334599129968272e-05</v>
+        <v>1.421842234883101e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07394134109555751</v>
+        <v>0.7347394643867191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.84896228964317e-09</v>
+        <v>-0.01578705079185459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8888176667405567</v>
+        <v>0.6819233707594227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01505307880788077</v>
+        <v>0.05525163864714995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.690918541901701</v>
+        <v>0.02009544435531536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04272037410023909</v>
+        <v>-0.1860196173252038</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06562732282403433</v>
+        <v>0.8155474520178098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8232578768390922</v>
+        <v>-0.009460565511612945</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2931803813555861</v>
+        <v>0.008491612942903726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007704207218190351</v>
+        <v>-0.001257199665526415</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03199242684057153</v>
+        <v>0.8011598046163739</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0001297839602889621</v>
+        <v>4.245738297442488</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9795942805862836</v>
+        <v>1.567699129147035e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.711360095051168</v>
+        <v>3.113206074572673</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001437980136030303</v>
+        <v>0.004733127093261611</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.719230331172799</v>
+        <v>-3.033982379662123</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01229649565216545</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.817421759220443</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.003821397453616422</v>
+        <v>0.00208510150765443</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7080908270849968</v>
+        <v>0.5688423058338722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4316287281973785</v>
+        <v>0.525034782024582</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.354768511260304</v>
+        <v>0.275739732000358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3350072862906435</v>
+        <v>0.4444964999972205</v>
       </c>
     </row>
     <row r="4">
@@ -1458,257 +1419,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7495158369979955</v>
+        <v>-0.5698121785601142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005474834004164022</v>
+        <v>0.006483878129796802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7276463386421579</v>
+        <v>-0.4941754541993362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001933878426513222</v>
+        <v>0.0213184879207719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6067859955677788</v>
+        <v>-0.7648461065971203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006541350852121444</v>
+        <v>0.0008788649968505746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4000312646719785</v>
+        <v>0.06201137477059132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5423981192778304</v>
+        <v>0.6543190671455453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01252660249107149</v>
+        <v>0.0008521567810315109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9316764382006099</v>
+        <v>1.725671050536987e-29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008939731806221724</v>
+        <v>-0.005516704004854651</v>
       </c>
       <c r="C9" t="n">
-        <v>1.696463536593713e-31</v>
+        <v>0.1569840905757962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.008793254130619823</v>
+        <v>0.5681375003526113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0275329257262556</v>
+        <v>3.569734519852304e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6449644706365745</v>
+        <v>0.70324641298256</v>
       </c>
       <c r="C11" t="n">
-        <v>1.644144240629014e-07</v>
+        <v>5.087961371190274e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5559103682543008</v>
+        <v>0.3589003240256717</v>
       </c>
       <c r="C12" t="n">
-        <v>8.754884253278736e-05</v>
+        <v>0.08559346115353622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3829149249496658</v>
+        <v>-7.096405605879674e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0700521120050452</v>
+        <v>0.08228263700953511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.432032414133471e-05</v>
+        <v>1.569416735551489e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04014520049767693</v>
+        <v>0.7056351494067085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.634631776748543e-08</v>
+        <v>-0.006521133713421545</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5312418072228117</v>
+        <v>0.8642539714155414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.005599944115965169</v>
+        <v>0.05551440908844593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8824166604809593</v>
+        <v>0.0172658990036043</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04637477025095305</v>
+        <v>-1.097795176192887</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04436146945508188</v>
+        <v>0.1551905630825033</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8401171705840254</v>
+        <v>-0.006977241743666005</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2792153271433014</v>
+        <v>0.0560890563949971</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007764196697696239</v>
+        <v>0.001233393695942482</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03368459091684922</v>
+        <v>0.8205299275471535</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002743548690971385</v>
+        <v>3.939350343123194</v>
       </c>
       <c r="C20" t="n">
-        <v>0.613299629606412</v>
+        <v>5.467074195717675e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.293265461868384</v>
+        <v>3.281360816324971</v>
       </c>
       <c r="C21" t="n">
-        <v>1.275466322178417e-05</v>
+        <v>0.002771203411026633</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.529821725145328</v>
+        <v>-3.082393674294619</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001610879993793202</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.209185653195753</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.00114925864305473</v>
+        <v>0.001648567074708193</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5847626375895827</v>
+        <v>0.8153601666326605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4966959036735399</v>
+        <v>0.3670917114077937</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3082430548976625</v>
+        <v>0.3384528996265323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4122119990349412</v>
+        <v>0.3482139776226864</v>
       </c>
     </row>
     <row r="4">
@@ -1780,257 +1728,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6764903213654997</v>
+        <v>-0.7961543048839005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001699159805597381</v>
+        <v>0.0001648373300522066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6539197130944534</v>
+        <v>-0.6453039177678288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006060587472949342</v>
+        <v>0.003096397281023973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5120825344368148</v>
+        <v>-0.6649908909627852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02062777369735587</v>
+        <v>0.003978116727337579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4706133707819192</v>
+        <v>-0.03630696061250799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5923234653570778</v>
+        <v>0.7928640532384578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06309441912802193</v>
+        <v>0.0008514822987312606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6643477856035671</v>
+        <v>8.786641378192328e-30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008854208929900917</v>
+        <v>-0.005277519629783671</v>
       </c>
       <c r="C9" t="n">
-        <v>2.291274174951018e-30</v>
+        <v>0.1870792881456287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006522168976698523</v>
+        <v>0.5941789634157655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09835059153207085</v>
+        <v>1.491743155702788e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5718934024328117</v>
+        <v>0.6323211709680153</v>
       </c>
       <c r="C11" t="n">
-        <v>3.814666966458391e-06</v>
+        <v>7.485473537350945e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6731823109161054</v>
+        <v>0.3031011377513048</v>
       </c>
       <c r="C12" t="n">
-        <v>1.936122565178858e-06</v>
+        <v>0.1546443534116922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3188262172385928</v>
+        <v>-6.250076296419338e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1315739296767686</v>
+        <v>0.1282399885961161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.490872747253136e-05</v>
+        <v>1.08337820884205e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07069093930741469</v>
+        <v>0.7942015906795581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.43469879549472e-08</v>
+        <v>-0.008711223311294761</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5620355966954497</v>
+        <v>0.8232367944633224</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.00575085779392535</v>
+        <v>0.04797770862103249</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8828095513244824</v>
+        <v>0.04353292519214529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05853702670426363</v>
+        <v>-0.7970062532784982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01446998237515807</v>
+        <v>0.3052799018177204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.237240544736872</v>
+        <v>-0.01013734976130116</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1135310201737693</v>
+        <v>0.005518920113389677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006283984756349007</v>
+        <v>0.0028021969471898</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08268997915282952</v>
+        <v>0.6086843044889017</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0002307718093727408</v>
+        <v>4.27533792837508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9625382660127136</v>
+        <v>1.376176468628902e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.327256147527357</v>
+        <v>3.225281772556905</v>
       </c>
       <c r="C21" t="n">
-        <v>1.26652067464876e-05</v>
+        <v>0.003750709969265694</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.747041439559125</v>
+        <v>-3.14684313047581</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0008083085133378825</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.221363978532778</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.001203603022853889</v>
+        <v>0.001385049191324656</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.165162778315509</v>
+        <v>1.105308618921243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1910773284402485</v>
+        <v>0.2057764603774561</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5383037546773969</v>
+        <v>0.5150856369571153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1392742321023757</v>
+        <v>0.1559863033865198</v>
       </c>
     </row>
     <row r="4">
@@ -2102,257 +2037,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8068315331017855</v>
+        <v>-0.8260038438763568</v>
       </c>
       <c r="C4" t="n">
-        <v>8.376392579542454e-05</v>
+        <v>5.314416688431512e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6825119511326896</v>
+        <v>-0.7086030444493714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003367087615228258</v>
+        <v>0.0007525165456119792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5925846929899629</v>
+        <v>-0.6571793668440695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005192016601052331</v>
+        <v>0.004022972196714068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5009863350890548</v>
+        <v>-0.06852896679879887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4585890578659356</v>
+        <v>0.6039129368408195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06832650765033087</v>
+        <v>0.0008006334351609405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6064237023604078</v>
+        <v>3.628791635400687e-27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000883022234037352</v>
+        <v>-0.006373314123523905</v>
       </c>
       <c r="C9" t="n">
-        <v>6.814203584729053e-31</v>
+        <v>0.1013785660905441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.00318114678028759</v>
+        <v>0.6197792255222514</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4238550878711013</v>
+        <v>4.258198648128103e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6535039636678502</v>
+        <v>0.7254869131283302</v>
       </c>
       <c r="C11" t="n">
-        <v>1.118337927764862e-07</v>
+        <v>1.715096290992928e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5807335893824955</v>
+        <v>0.3199833096757541</v>
       </c>
       <c r="C12" t="n">
-        <v>3.829088718265765e-05</v>
+        <v>0.1211972792644447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1920028553421522</v>
+        <v>-9.260304524515831e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3666534077740063</v>
+        <v>0.02293492918053851</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.566696708315931e-05</v>
+        <v>3.005444243483309e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1113904334094071</v>
+        <v>0.4659459674527553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.660822280790041e-08</v>
+        <v>-0.02484878517582466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6940929164571966</v>
+        <v>0.5144057241024445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02703621782037404</v>
+        <v>0.05336157637342222</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4796473805417379</v>
+        <v>0.02359744827111401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03550636218208621</v>
+        <v>-0.9752274794564035</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1266822925405091</v>
+        <v>0.2080176595431871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.033462024205253</v>
+        <v>-0.00584387259964594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.181083436186633</v>
+        <v>0.1083611348261925</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008203666045507698</v>
+        <v>0.0005703594020974131</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02505792826101649</v>
+        <v>0.9137256578923051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00232344821543301</v>
+        <v>4.454812950744197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6677071962610697</v>
+        <v>4.536838094597401e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.380489238644929</v>
+        <v>3.250347381991058</v>
       </c>
       <c r="C21" t="n">
-        <v>7.160861496903188e-06</v>
+        <v>0.002980941194650717</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.655993652991113</v>
+        <v>-3.398368077289041</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0009185345167329675</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.773531860339556</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0001194066751338647</v>
+        <v>0.0005002677134388351</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6328869626385377</v>
+        <v>0.7071933392324181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4763685228966761</v>
+        <v>0.4475517607711292</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2814539528222688</v>
+        <v>0.7177698134525582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4210807066466932</v>
+        <v>0.05644285915617794</v>
       </c>
     </row>
     <row r="4">
@@ -2424,257 +2346,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.678410126513278</v>
+        <v>-0.8239013646060966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009896302728296287</v>
+        <v>8.937959576277598e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8194864897128502</v>
+        <v>-0.6456695555755968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004787778718045924</v>
+        <v>0.002774558602804217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.596324585878218</v>
+        <v>-0.4682945964134423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004831430224561542</v>
+        <v>0.0440127646994472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3791201405958717</v>
+        <v>-0.1150599940292653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5702012272078608</v>
+        <v>0.3995578840819309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0104574314697372</v>
+        <v>0.0008892069920047644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.936947016938217</v>
+        <v>9.700070396693596e-31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008702348263940383</v>
+        <v>-0.00555962314027607</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9330982998647e-30</v>
+        <v>0.1631113075817208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.004318740107401214</v>
+        <v>0.6068414721370975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2683192112120024</v>
+        <v>9.521793791848847e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6480432985462501</v>
+        <v>0.6585667239850884</v>
       </c>
       <c r="C11" t="n">
-        <v>1.611760087329753e-07</v>
+        <v>2.866074186473924e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6941061857547495</v>
+        <v>0.3042573457679682</v>
       </c>
       <c r="C12" t="n">
-        <v>8.278620137938959e-07</v>
+        <v>0.1502221566416514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2715078279473421</v>
+        <v>-7.328824204548509e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1915239930886387</v>
+        <v>0.08303804916003645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.745830789736101e-05</v>
+        <v>2.971489116369048e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0342140481526515</v>
+        <v>0.4982842773083831</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.205367134597957e-08</v>
+        <v>-0.0309830775151774</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6005605214389029</v>
+        <v>0.437026911536902</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.007153641119295698</v>
+        <v>0.06287264833076822</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8530662557034441</v>
+        <v>0.01076985005515057</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05274288194512894</v>
+        <v>-1.283404023358962</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02302542311851088</v>
+        <v>0.1003578209558489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.6498130902977491</v>
+        <v>-0.0048716564779637</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4057697243360163</v>
+        <v>0.188890769012532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008425930477320386</v>
+        <v>0.004078572637072035</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01995906815314577</v>
+        <v>0.4773083351367609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001354355827755091</v>
+        <v>4.195586099358076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8025829099108395</v>
+        <v>3.268919162575631e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.766785662168049</v>
+        <v>3.406406877823217</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001304317082023187</v>
+        <v>0.002581105732945271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.83144221753424</v>
+        <v>-3.450987058822045</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01043073533909921</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.731338660852956</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.005634427917709732</v>
+        <v>0.0006745683716192721</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.117227782999633</v>
+        <v>0.5277721926285802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2389327989856715</v>
+        <v>0.5597709558517592</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4830117930531552</v>
+        <v>0.4039161883038432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2015127929449272</v>
+        <v>0.281862006259771</v>
       </c>
     </row>
     <row r="4">
@@ -2746,257 +2655,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9434724224452943</v>
+        <v>-0.7937470083303735</v>
       </c>
       <c r="C4" t="n">
-        <v>7.614176819751632e-06</v>
+        <v>0.0001844431144562728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7478083033477543</v>
+        <v>-0.5318696472622141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00223799796701302</v>
+        <v>0.01504296728783991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.762395935877465</v>
+        <v>-0.6275309542002067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004425511811535911</v>
+        <v>0.005789968124188291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5681043637655038</v>
+        <v>-0.005511460584011639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.403845136639521</v>
+        <v>0.9687133889162761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06719052031932829</v>
+        <v>0.0009500826049971448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6207484178866864</v>
+        <v>1.462882899758465e-33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008273002129664446</v>
+        <v>-0.007372302713625811</v>
       </c>
       <c r="C9" t="n">
-        <v>7.597875856281425e-27</v>
+        <v>0.06535084096703241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006508427949063786</v>
+        <v>0.5966110431960873</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10034800135646</v>
+        <v>1.49447830819942e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6469789527527632</v>
+        <v>0.6105244744666032</v>
       </c>
       <c r="C11" t="n">
-        <v>2.302133836359477e-07</v>
+        <v>1.727874103379225e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7685364862327665</v>
+        <v>0.3384598682658735</v>
       </c>
       <c r="C12" t="n">
-        <v>5.906420909657283e-08</v>
+        <v>0.1104308660859338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3751147127019155</v>
+        <v>-8.370831876165052e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07233620186176208</v>
+        <v>0.04201799778768968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.142370122956474e-05</v>
+        <v>2.695966812768245e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1402083995039418</v>
+        <v>0.5237511128108556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.401965786856103e-09</v>
+        <v>0.003201813762221912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9733665434382927</v>
+        <v>0.9346800097159903</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02349406476594669</v>
+        <v>0.05158174727393818</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5511641813452419</v>
+        <v>0.03034927740661244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05136626939146523</v>
+        <v>-1.135525281206415</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0300505667619804</v>
+        <v>0.1496850479225371</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.7698136497982577</v>
+        <v>-0.005320003762564221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3329645957523125</v>
+        <v>0.1487843093970405</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008949180819684615</v>
+        <v>0.002808154749029638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01674677231763929</v>
+        <v>0.6069433886810075</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003459359060424235</v>
+        <v>3.910378248278296</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5558758203835629</v>
+        <v>7.021913522576749e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.05082458570147</v>
+        <v>3.156027469347912</v>
       </c>
       <c r="C21" t="n">
-        <v>4.852005745062577e-05</v>
+        <v>0.004715186743192961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.248231524774316</v>
+        <v>-3.063694797424479</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003842098763220787</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.273617703386438</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.001280813365156239</v>
+        <v>0.002065265753799706</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9266484834469675</v>
+        <v>1.332670750897532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2816593475148649</v>
+        <v>0.130252778225268</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3294554804486982</v>
+        <v>0.2351841340038433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.363390644610153</v>
+        <v>0.5169084754460662</v>
       </c>
     </row>
     <row r="4">
@@ -3068,257 +2964,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.722788231936409</v>
+        <v>-0.878288466041318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005423575519637268</v>
+        <v>3.062524989382558e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7348626761940058</v>
+        <v>-0.7479024739963672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001960728635331985</v>
+        <v>0.0005355404966417681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5799428051015355</v>
+        <v>-0.7724098810475253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007039476928680891</v>
+        <v>0.0008799696668074986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004139426164212874</v>
+        <v>-0.03098142676988911</v>
       </c>
       <c r="C7" t="n">
-        <v>0.995575541913776</v>
+        <v>0.8185180512265486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.001760111118297885</v>
+        <v>0.0008959517512776936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9898261186317636</v>
+        <v>8.618136422039892e-31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008809505588054056</v>
+        <v>-0.004216733569931762</v>
       </c>
       <c r="C9" t="n">
-        <v>3.306336324482311e-31</v>
+        <v>0.2879003027150144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.008050755744290729</v>
+        <v>0.5990758016395118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03914836618855729</v>
+        <v>1.204343030132631e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5715043455082321</v>
+        <v>0.6778109282906256</v>
       </c>
       <c r="C11" t="n">
-        <v>3.276361997516217e-06</v>
+        <v>1.629503978151512e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6888871436110424</v>
+        <v>0.2213138193616271</v>
       </c>
       <c r="C12" t="n">
-        <v>1.065110391669455e-06</v>
+        <v>0.2925603950515068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3838860736478219</v>
+        <v>-5.221663414306102e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06323006595246576</v>
+        <v>0.2075649377801323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.761018203847847e-05</v>
+        <v>3.799508683235873e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09623738731391585</v>
+        <v>0.9281526854668252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.065763974439137e-08</v>
+        <v>0.001276285434992642</v>
       </c>
       <c r="C15" t="n">
-        <v>0.797361260871931</v>
+        <v>0.9738751568329453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.009954677299438823</v>
+        <v>0.03245090234680949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7945405282311233</v>
+        <v>0.1594927984540723</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05527768017167001</v>
+        <v>-1.238310320301861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01799336014164402</v>
+        <v>0.1118262630301366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.994750865573791</v>
+        <v>-0.009278586473029019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1997438842053995</v>
+        <v>0.0101534774650363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007271497763088824</v>
+        <v>-0.0005267379339516936</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04414370897464808</v>
+        <v>0.9179552050283285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0005299140215239595</v>
+        <v>3.50427078572261</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9151593532084865</v>
+        <v>0.0004194911656659175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.042663808622377</v>
+        <v>3.017936363940736</v>
       </c>
       <c r="C21" t="n">
-        <v>3.552145710388021e-05</v>
+        <v>0.007831535400259543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.45509130901983</v>
+        <v>-2.91105189608222</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001736578277039975</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.099319680062723</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.001651286074002994</v>
+        <v>0.003798383759473341</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/carown_LR/Toulouse.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ20" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="summ1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ13" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ22" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ6" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ21" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9701023603714007</v>
+        <v>-0.04269146017279585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2659589570971946</v>
+        <v>0.9585059753158939</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2690341559509464</v>
+        <v>0.511403935259333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.467528688669322</v>
+        <v>0.1601889335609076</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6567914300647658</v>
+        <v>-0.9170906241814525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001842483061285457</v>
+        <v>8.728540681291238e-06</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5534086113800999</v>
+        <v>-0.772149042080572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01075460099500808</v>
+        <v>0.0002816271836954678</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.764852873347365</v>
+        <v>-0.6251921925842157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007402177957073177</v>
+        <v>0.006025928822212517</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04260300677130559</v>
+        <v>-0.1243138269735466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7607932669998752</v>
+        <v>0.3466625748405683</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008742183849865673</v>
+        <v>0.0008672306361693319</v>
       </c>
       <c r="C8" t="n">
-        <v>3.431775792753243e-30</v>
+        <v>2.132202897612592e-30</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.003821449934645926</v>
+        <v>-0.006744424255693833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3306163939979212</v>
+        <v>0.08612584080767789</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6817153759952195</v>
+        <v>0.608197012485133</v>
       </c>
       <c r="C10" t="n">
-        <v>3.019579012803141e-08</v>
+        <v>8.697235353926091e-07</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6724156439347879</v>
+        <v>0.6376217272491925</v>
       </c>
       <c r="C11" t="n">
-        <v>1.693232116455758e-06</v>
+        <v>5.900933733331124e-06</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2145350049180385</v>
+        <v>0.338023799983946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3027660482380566</v>
+        <v>0.104136940421733</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.845560734356058e-05</v>
+        <v>-0.0001022655693247241</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09256644867762184</v>
+        <v>0.01079815728822313</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.083268666684827e-09</v>
+        <v>1.299882160115631e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9790448223987155</v>
+        <v>0.742720911444932</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02517653692009354</v>
+        <v>0.04416000756428108</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5099224134556111</v>
+        <v>0.2269124347246501</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05112215776606399</v>
+        <v>0.0490060444813034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02739491685812536</v>
+        <v>0.02909836348676818</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4587354080447208</v>
+        <v>0.11823359830758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5550293372605071</v>
+        <v>0.8719234205358914</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008021126265373723</v>
+        <v>-0.008512359311129588</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02703834254817721</v>
+        <v>0.01885255951939976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.000543297468266471</v>
+        <v>0.004785008735223917</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9153738808428888</v>
+        <v>0.3810980594567036</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.298825319911155</v>
+        <v>1.402474087660181</v>
       </c>
       <c r="C20" t="n">
-        <v>1.000681155955672e-05</v>
+        <v>0.002842511594097027</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.22151695453956</v>
+        <v>0.2538361925868044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001385971529921538</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.666173359468447</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0001979635084390644</v>
+        <v>0.680049070815029</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6217776100241</v>
+        <v>-0.1973095934861146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4778967116441964</v>
+        <v>0.8066474078205246</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4863260797186018</v>
+        <v>0.3881449265567298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1787033011224241</v>
+        <v>0.2918962058002494</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7493723961112126</v>
+        <v>-0.7569324732174099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002965395709597778</v>
+        <v>0.0002766268117537682</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6267512945034632</v>
+        <v>-0.5877851958959266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003300606491556656</v>
+        <v>0.006215207061545599</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.789323604240409</v>
+        <v>-0.6607390627991172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005628071747663095</v>
+        <v>0.004440327706115832</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04402746750595219</v>
+        <v>-0.02348571691538962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7460638848034058</v>
+        <v>0.8634701008374893</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008559320142207522</v>
+        <v>0.0008655906881868045</v>
       </c>
       <c r="C8" t="n">
-        <v>7.632108331518557e-30</v>
+        <v>3.166533177663697e-30</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007303603426850395</v>
+        <v>-0.007048332193266303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06167294522557134</v>
+        <v>0.07057930713014803</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6656697891942345</v>
+        <v>0.6632875849829851</v>
       </c>
       <c r="C10" t="n">
-        <v>5.224757782265728e-08</v>
+        <v>1.048092149987601e-07</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7008655657966699</v>
+        <v>0.6771348526290878</v>
       </c>
       <c r="C11" t="n">
-        <v>6.489244353661965e-07</v>
+        <v>1.571475945157764e-06</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3602306672616817</v>
+        <v>0.337529122826831</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08221159243688811</v>
+        <v>0.103985286359164</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001012042569067354</v>
+        <v>-8.728142400439944e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01400441286993557</v>
+        <v>0.03145146459522443</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.749528944549603e-08</v>
+        <v>1.820077828846929e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3742858741602099</v>
+        <v>0.9637813413540927</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000340940608252418</v>
+        <v>0.005528224157752696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9928087285934422</v>
+        <v>0.8801399384213192</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0469156958140015</v>
+        <v>0.06902994349252266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03979045714598829</v>
+        <v>0.002922720465639934</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.8022323106259833</v>
+        <v>-0.3181954025320382</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3021682221885684</v>
+        <v>0.6616525538732352</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007597115475042261</v>
+        <v>-0.007592742357911297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03566559583765738</v>
+        <v>0.03767884388337043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002107682158721088</v>
+        <v>0.003956893309133656</v>
       </c>
       <c r="C19" t="n">
-        <v>0.687541552804543</v>
+        <v>0.4566603376459023</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.484244058728755</v>
+        <v>1.201938836818679</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003728013837364888</v>
+        <v>0.009907862025606</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.259769205892138</v>
+        <v>0.4444706985709585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03889881887414572</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.329320224722094</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01753994510598771</v>
+        <v>0.4740225511378715</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.325549952879192</v>
+        <v>-0.7530984931283791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1242281738324575</v>
+        <v>0.3657690997163076</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4754068173677427</v>
+        <v>0.4020124143887174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209828732412135</v>
+        <v>0.2635685379441881</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8948830375518138</v>
+        <v>-0.7299462156122205</v>
       </c>
       <c r="C4" t="n">
-        <v>2.901045805819776e-05</v>
+        <v>0.0004200630010279511</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7367470414098529</v>
+        <v>-0.6382167854388682</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008137978202156079</v>
+        <v>0.002710616561777042</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7436681433112196</v>
+        <v>-0.692194623125244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001714374985702379</v>
+        <v>0.002475728240819694</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03136241572703705</v>
+        <v>-0.06927235865339931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8258596717885424</v>
+        <v>0.6055475507158312</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008241727160929069</v>
+        <v>0.0009319701809590675</v>
       </c>
       <c r="C8" t="n">
-        <v>1.887606465030031e-27</v>
+        <v>3.131973702769893e-33</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007211421249574854</v>
+        <v>-0.007973726021761352</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06636899159848572</v>
+        <v>0.04065270318144559</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6048554133252684</v>
+        <v>0.5628207093072345</v>
       </c>
       <c r="C10" t="n">
-        <v>1.289383899889745e-06</v>
+        <v>3.881419174073167e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6597391802835521</v>
+        <v>0.6404691671796138</v>
       </c>
       <c r="C11" t="n">
-        <v>3.418531154973674e-06</v>
+        <v>4.73142472656569e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3213930317045771</v>
+        <v>0.364677447360129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1252307136600612</v>
+        <v>0.07854272241381559</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.370788910179535e-05</v>
+        <v>-8.849187433048893e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02216564416906756</v>
+        <v>0.02579575536299775</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.421842234883101e-08</v>
+        <v>-4.37766245153304e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7347394643867191</v>
+        <v>0.9118493369461779</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01578705079185459</v>
+        <v>0.02226408946323334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6819233707594227</v>
+        <v>0.5366118270317601</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05525163864714995</v>
+        <v>0.06974059336886666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02009544435531536</v>
+        <v>0.002433595431766987</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1860196173252038</v>
+        <v>0.3682249080478714</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8155474520178098</v>
+        <v>0.6163495051907479</v>
       </c>
     </row>
     <row r="18">
@@ -1292,23 +1266,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009460565511612945</v>
+        <v>-0.00703645842567736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008491612942903726</v>
+        <v>0.05293710827188933</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001257199665526415</v>
+        <v>0.006804421567077194</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8011598046163739</v>
+        <v>0.2202149220406452</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.245738297442488</v>
+        <v>1.469028392805663</v>
       </c>
       <c r="C20" t="n">
-        <v>1.567699129147035e-05</v>
+        <v>0.001442254745830887</v>
       </c>
     </row>
     <row r="21">
@@ -1331,23 +1305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.113206074572673</v>
+        <v>0.7289718977947136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004733127093261611</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.033982379662123</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.00208510150765443</v>
+        <v>0.2380957467482476</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5688423058338722</v>
+        <v>-0.6122343499604221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.525034782024582</v>
+        <v>0.4614803508585807</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.275739732000358</v>
+        <v>0.2944537128687189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4444964999972205</v>
+        <v>0.4145033129623243</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5698121785601142</v>
+        <v>-0.6742973282281922</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006483878129796802</v>
+        <v>0.001302250712722365</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4941754541993362</v>
+        <v>-0.5090879390762926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0213184879207719</v>
+        <v>0.01800600772892688</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7648461065971203</v>
+        <v>-0.6073782630267784</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008788649968505746</v>
+        <v>0.00891079194114977</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06201137477059132</v>
+        <v>0.022581205411565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6543190671455453</v>
+        <v>0.869130874102459</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008521567810315109</v>
+        <v>0.0008836247886970958</v>
       </c>
       <c r="C8" t="n">
-        <v>1.725671050536987e-29</v>
+        <v>2.655656513446849e-30</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005516704004854651</v>
+        <v>-0.005945387259269167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1569840905757962</v>
+        <v>0.1346429035472466</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5681375003526113</v>
+        <v>0.6696654845799135</v>
       </c>
       <c r="C10" t="n">
-        <v>3.569734519852304e-06</v>
+        <v>7.324001155289099e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.70324641298256</v>
+        <v>0.646306307300938</v>
       </c>
       <c r="C11" t="n">
-        <v>5.087961371190274e-07</v>
+        <v>4.954346993744643e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3589003240256717</v>
+        <v>0.2800496095507107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08559346115353622</v>
+        <v>0.1868313675023624</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.096405605879674e-05</v>
+        <v>-7.679466472201717e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08228263700953511</v>
+        <v>0.057131775202759</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.569416735551489e-08</v>
+        <v>1.262672954488353e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7056351494067085</v>
+        <v>0.7523753611935736</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.006521133713421545</v>
+        <v>0.02673581172424034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8642539714155414</v>
+        <v>0.4829742840020571</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05551440908844593</v>
+        <v>0.07825662849095152</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0172658990036043</v>
+        <v>0.001251166516903533</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.097795176192887</v>
+        <v>-0.502356838144874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1551905630825033</v>
+        <v>0.4909587257757879</v>
       </c>
     </row>
     <row r="18">
@@ -1601,23 +1562,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006977241743666005</v>
+        <v>-0.006681264835692978</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0560890563949971</v>
+        <v>0.06952621517679074</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001233393695942482</v>
+        <v>0.005636260730962644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8205299275471535</v>
+        <v>0.3135064899093691</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.939350343123194</v>
+        <v>1.015401432193379</v>
       </c>
       <c r="C20" t="n">
-        <v>5.467074195717675e-05</v>
+        <v>0.02985132604665605</v>
       </c>
     </row>
     <row r="21">
@@ -1640,23 +1601,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.281360816324971</v>
+        <v>-0.02608305929886426</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002771203411026633</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.082393674294619</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.001648567074708193</v>
+        <v>0.9663312221848809</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8153601666326605</v>
+        <v>0.06660866930696079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3670917114077937</v>
+        <v>0.9340739172559894</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3384528996265323</v>
+        <v>0.7423853556251335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3482139776226864</v>
+        <v>0.06160923844338918</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7961543048839005</v>
+        <v>-0.8823319161077421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001648373300522066</v>
+        <v>3.498506298493307e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6453039177678288</v>
+        <v>-0.7552816371138187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003096397281023973</v>
+        <v>0.0005664918354179288</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6649908909627852</v>
+        <v>-0.847758411103924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003978116727337579</v>
+        <v>0.000219069668103788</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03630696061250799</v>
+        <v>-0.08511393628199881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7928640532384578</v>
+        <v>0.5498147431343121</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008514822987312606</v>
+        <v>0.0008449063639049283</v>
       </c>
       <c r="C8" t="n">
-        <v>8.786641378192328e-30</v>
+        <v>8.087605273377923e-29</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005277519629783671</v>
+        <v>-0.006028353935807869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1870792881456287</v>
+        <v>0.1230250509586478</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5941789634157655</v>
+        <v>0.6299272048428224</v>
       </c>
       <c r="C10" t="n">
-        <v>1.491743155702788e-06</v>
+        <v>3.472090063346187e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6323211709680153</v>
+        <v>0.7095758901420596</v>
       </c>
       <c r="C11" t="n">
-        <v>7.485473537350945e-06</v>
+        <v>5.019866795014422e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3031011377513048</v>
+        <v>0.3246298015862814</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1546443534116922</v>
+        <v>0.1191013942125224</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.250076296419338e-05</v>
+        <v>-9.831818815368747e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1282399885961161</v>
+        <v>0.01419339465199312</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.08337820884205e-08</v>
+        <v>1.384365249441172e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7942015906795581</v>
+        <v>0.7312139881606852</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008711223311294761</v>
+        <v>0.0146337671074855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8232367944633224</v>
+        <v>0.6940342196994618</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04797770862103249</v>
+        <v>0.06227450385247038</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04353292519214529</v>
+        <v>0.008310931049219185</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7970062532784982</v>
+        <v>0.03466466196729208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3052799018177204</v>
+        <v>0.9621449024979342</v>
       </c>
     </row>
     <row r="18">
@@ -1910,23 +1858,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01013734976130116</v>
+        <v>-0.01003469484437991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005518920113389677</v>
+        <v>0.005465316780255602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0028021969471898</v>
+        <v>0.002857535085224507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6086843044889017</v>
+        <v>0.5830593815211425</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.27533792837508</v>
+        <v>1.398790118785433</v>
       </c>
       <c r="C20" t="n">
-        <v>1.376176468628902e-05</v>
+        <v>0.002678346200919737</v>
       </c>
     </row>
     <row r="21">
@@ -1949,23 +1897,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.225281772556905</v>
+        <v>0.4998009026403826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003750709969265694</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.14684313047581</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.001385049191324656</v>
+        <v>0.4190548057282008</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.105308618921243</v>
+        <v>-0.3742255589625043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2057764603774561</v>
+        <v>0.6493804218069046</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5150856369571153</v>
+        <v>0.1351340342994403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1559863033865198</v>
+        <v>0.7140937357316294</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8260038438763568</v>
+        <v>-0.6243469100715401</v>
       </c>
       <c r="C4" t="n">
-        <v>5.314416688431512e-05</v>
+        <v>0.004356995941154057</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7086030444493714</v>
+        <v>-0.3933375246736032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007525165456119792</v>
+        <v>0.07946228552092408</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6571793668440695</v>
+        <v>-0.6909809458010037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004022972196714068</v>
+        <v>0.002472779130825071</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06852896679879887</v>
+        <v>0.06842491973481106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6039129368408195</v>
+        <v>0.6483809533807412</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008006334351609405</v>
+        <v>0.0008891179183040004</v>
       </c>
       <c r="C8" t="n">
-        <v>3.628791635400687e-27</v>
+        <v>1.015273859981383e-31</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.006373314123523905</v>
+        <v>-0.007253046356464379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1013785660905441</v>
+        <v>0.06286585348761474</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6197792255222514</v>
+        <v>0.562387191573897</v>
       </c>
       <c r="C10" t="n">
-        <v>4.258198648128103e-07</v>
+        <v>4.262423978021823e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7254869131283302</v>
+        <v>0.6367601611847823</v>
       </c>
       <c r="C11" t="n">
-        <v>1.715096290992928e-07</v>
+        <v>5.859281286807109e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3199833096757541</v>
+        <v>0.3100649662994656</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1211972792644447</v>
+        <v>0.1415509266880957</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.260304524515831e-05</v>
+        <v>-7.954594310312154e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02293492918053851</v>
+        <v>0.05235011074500128</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.005444243483309e-08</v>
+        <v>1.41274024868327e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4659459674527553</v>
+        <v>0.7266093475454809</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02484878517582466</v>
+        <v>0.03876172222142779</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5144057241024445</v>
+        <v>0.300623794609136</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05336157637342222</v>
+        <v>0.06446059557188739</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02359744827111401</v>
+        <v>0.005272573278488196</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.9752274794564035</v>
+        <v>-0.1683598539858563</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2080176595431871</v>
+        <v>0.8188240078006102</v>
       </c>
     </row>
     <row r="18">
@@ -2219,23 +2154,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.00584387259964594</v>
+        <v>-0.009981373372335043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1083611348261925</v>
+        <v>0.005978443754993415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0005703594020974131</v>
+        <v>0.003403375059807791</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9137256578923051</v>
+        <v>0.5285959708657736</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.454812950744197</v>
+        <v>1.309060819667452</v>
       </c>
       <c r="C20" t="n">
-        <v>4.536838094597401e-06</v>
+        <v>0.005089132151186373</v>
       </c>
     </row>
     <row r="21">
@@ -2258,23 +2193,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.250347381991058</v>
+        <v>0.1460675056285275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002980941194650717</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.398368077289041</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005002677134388351</v>
+        <v>0.8143179993361189</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7071933392324181</v>
+        <v>-0.2379745388059133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4475517607711292</v>
+        <v>0.7716139291289091</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7177698134525582</v>
+        <v>0.4317133073741917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05644285915617794</v>
+        <v>0.2302418539057591</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8239013646060966</v>
+        <v>-0.8236583946510765</v>
       </c>
       <c r="C4" t="n">
-        <v>8.937959576277598e-05</v>
+        <v>5.970199327596148e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6456695555755968</v>
+        <v>-0.6803027703203723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002774558602804217</v>
+        <v>0.001263731643384545</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4682945964134423</v>
+        <v>-0.7897554746897659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0440127646994472</v>
+        <v>0.0005055819701174411</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2307,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1150599940292653</v>
+        <v>-0.06161825263037616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3995578840819309</v>
+        <v>0.6394424688437034</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008892069920047644</v>
+        <v>0.0008316636732342779</v>
       </c>
       <c r="C8" t="n">
-        <v>9.700070396693596e-31</v>
+        <v>6.00719254963227e-29</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00555962314027607</v>
+        <v>-0.005276899939583042</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1631113075817208</v>
+        <v>0.1799110348981798</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6068414721370975</v>
+        <v>0.6099790417695342</v>
       </c>
       <c r="C10" t="n">
-        <v>9.521793791848847e-07</v>
+        <v>6.338230410476303e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6585667239850884</v>
+        <v>0.7249993925448466</v>
       </c>
       <c r="C11" t="n">
-        <v>2.866074186473924e-06</v>
+        <v>2.267245751573857e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3042573457679682</v>
+        <v>0.3506703164259736</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1502221566416514</v>
+        <v>0.09496663463891933</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.328824204548509e-05</v>
+        <v>-8.789132615894174e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08303804916003645</v>
+        <v>0.02893617460815733</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.971489116369048e-08</v>
+        <v>9.666806351383673e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4982842773083831</v>
+        <v>0.8124029968090971</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0309830775151774</v>
+        <v>0.006240250621349568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437026911536902</v>
+        <v>0.866042938613068</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06287264833076822</v>
+        <v>0.06418953452638891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01076985005515057</v>
+        <v>0.006157024886021528</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.283404023358962</v>
+        <v>-0.1616370634249137</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1003578209558489</v>
+        <v>0.8273146865127408</v>
       </c>
     </row>
     <row r="18">
@@ -2528,23 +2450,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0048716564779637</v>
+        <v>-0.008150038994840705</v>
       </c>
       <c r="C18" t="n">
-        <v>0.188890769012532</v>
+        <v>0.02680340173598983</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004078572637072035</v>
+        <v>0.005362790470699159</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4773083351367609</v>
+        <v>0.3327382339062755</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.195586099358076</v>
+        <v>1.231178559304447</v>
       </c>
       <c r="C20" t="n">
-        <v>3.268919162575631e-05</v>
+        <v>0.007912782902101224</v>
       </c>
     </row>
     <row r="21">
@@ -2567,23 +2489,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.406406877823217</v>
+        <v>0.1754799436359969</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002581105732945271</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.450987058822045</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0006745683716192721</v>
+        <v>0.7736211572486325</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5277721926285802</v>
+        <v>-0.09354391686391313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5597709558517592</v>
+        <v>0.9068399642743552</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4039161883038432</v>
+        <v>0.373778498494616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281862006259771</v>
+        <v>0.2970144825764056</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7937470083303735</v>
+        <v>-0.8680469081234617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001844431144562728</v>
+        <v>2.322811355094677e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5318696472622141</v>
+        <v>-0.6814496380909109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01504296728783991</v>
+        <v>0.001255707117625713</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6275309542002067</v>
+        <v>-0.7059355380821454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005789968124188291</v>
+        <v>0.001964704296279142</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2603,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.005511460584011639</v>
+        <v>-0.06072945908629101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9687133889162761</v>
+        <v>0.6444779886842296</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2616,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009500826049971448</v>
+        <v>0.0008615201977767933</v>
       </c>
       <c r="C8" t="n">
-        <v>1.462882899758465e-33</v>
+        <v>1.779386880292281e-30</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007372302713625811</v>
+        <v>-0.006270243470835003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06535084096703241</v>
+        <v>0.1051087666849252</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5966110431960873</v>
+        <v>0.6163675470127131</v>
       </c>
       <c r="C10" t="n">
-        <v>1.49447830819942e-06</v>
+        <v>4.52520575730821e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6105244744666032</v>
+        <v>0.5775228317610316</v>
       </c>
       <c r="C11" t="n">
-        <v>1.727874103379225e-05</v>
+        <v>3.729859767846372e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3384598682658735</v>
+        <v>0.241439954378495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1104308660859338</v>
+        <v>0.2416358828753407</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.370831876165052e-05</v>
+        <v>-9.216594121832703e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04201799778768968</v>
+        <v>0.02132860263902062</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.695966812768245e-08</v>
+        <v>1.070034783898871e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5237511128108556</v>
+        <v>0.789492028014658</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003201813762221912</v>
+        <v>0.008511304504277478</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9346800097159903</v>
+        <v>0.8162080793398264</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05158174727393818</v>
+        <v>0.06560062837079735</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03034927740661244</v>
+        <v>0.004858023519054517</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.135525281206415</v>
+        <v>-0.07749026087176523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1496850479225371</v>
+        <v>0.9153731008099187</v>
       </c>
     </row>
     <row r="18">
@@ -2837,23 +2746,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005320003762564221</v>
+        <v>-0.008375013382273868</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1487843093970405</v>
+        <v>0.0195614577324041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002808154749029638</v>
+        <v>0.004583890894104809</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6069433886810075</v>
+        <v>0.3837462719495424</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.910378248278296</v>
+        <v>1.280450382947354</v>
       </c>
       <c r="C20" t="n">
-        <v>7.021913522576749e-05</v>
+        <v>0.005352670505161682</v>
       </c>
     </row>
     <row r="21">
@@ -2876,23 +2785,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.156027469347912</v>
+        <v>0.239401974912624</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004715186743192961</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-3.063694797424479</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.002065265753799706</v>
+        <v>0.6949457312856742</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.332670750897532</v>
+        <v>-0.2059928009611575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130252778225268</v>
+        <v>0.7939958382266343</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2351841340038433</v>
+        <v>0.4982234428703822</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5169084754460662</v>
+        <v>0.1779720237255868</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.878288466041318</v>
+        <v>-0.6657238914555482</v>
       </c>
       <c r="C4" t="n">
-        <v>3.062524989382558e-05</v>
+        <v>0.001553685625457907</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7479024739963672</v>
+        <v>-0.6242835615708066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005355404966417681</v>
+        <v>0.003843131319357877</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7724098810475253</v>
+        <v>-0.6171369485643273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008799696668074986</v>
+        <v>0.007763017517663561</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03098142676988911</v>
+        <v>-0.03013306649323901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8185180512265486</v>
+        <v>0.8274260920185212</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008959517512776936</v>
+        <v>0.0008927112631532026</v>
       </c>
       <c r="C8" t="n">
-        <v>8.618136422039892e-31</v>
+        <v>9.804474515344391e-32</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004216733569931762</v>
+        <v>-0.008713714777177963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2879003027150144</v>
+        <v>0.0260628527526937</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5990758016395118</v>
+        <v>0.6050197506633865</v>
       </c>
       <c r="C10" t="n">
-        <v>1.204343030132631e-06</v>
+        <v>1.074396686639225e-06</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6778109282906256</v>
+        <v>0.7558901667801001</v>
       </c>
       <c r="C11" t="n">
-        <v>1.629503978151512e-06</v>
+        <v>5.807626617436197e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2213138193616271</v>
+        <v>0.4914610736587172</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2925603950515068</v>
+        <v>0.01775503085150692</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.221663414306102e-05</v>
+        <v>-0.0001078123155856304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2075649377801323</v>
+        <v>0.008187524365183746</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.799508683235873e-09</v>
+        <v>7.262737177418462e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9281526854668252</v>
+        <v>0.8573426779123627</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001276285434992642</v>
+        <v>0.0159838479187005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9738751568329453</v>
+        <v>0.6738998697111327</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03245090234680949</v>
+        <v>0.07365863527585531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1594927984540723</v>
+        <v>0.002230107012712406</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.238310320301861</v>
+        <v>0.1581240742258949</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1118262630301366</v>
+        <v>0.8290684656272308</v>
       </c>
     </row>
     <row r="18">
@@ -3146,23 +3042,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009278586473029019</v>
+        <v>-0.008344932476848119</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0101534774650363</v>
+        <v>0.02117995743398905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0005267379339516936</v>
+        <v>0.001959296664746954</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9179552050283285</v>
+        <v>0.6966539577693593</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.50427078572261</v>
+        <v>1.55754254088623</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004194911656659175</v>
+        <v>0.0009886500334197531</v>
       </c>
     </row>
     <row r="21">
@@ -3185,23 +3081,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.017936363940736</v>
+        <v>0.3862682379121847</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007831535400259543</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.91105189608222</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.003798383759473341</v>
+        <v>0.5343871800385231</v>
       </c>
     </row>
   </sheetData>
